--- a/Excel/StartConfig/Release/StartProcessConfig@s.xlsx
+++ b/Excel/StartConfig/Release/StartProcessConfig@s.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\weijingHot\trunk_weijing\Excel\StartConfig\Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF1F315-7EA1-4D2E-A610-6B4BF0325E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFF5A1D-C664-4DF7-B7CA-7B09B627E1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="855" windowWidth="25845" windowHeight="13590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartProcessConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Id</t>
   </si>
@@ -61,6 +61,10 @@
   </si>
   <si>
     <t>Robot</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alpha</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -456,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:F13"/>
+  <dimension ref="C3:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -583,9 +587,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C11" s="3">
-        <v>201</v>
+    <row r="11" spans="3:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="7">
+        <v>200</v>
       </c>
       <c r="D11" s="7">
         <v>1</v>
@@ -593,27 +597,27 @@
       <c r="E11" s="5">
         <v>20197</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>10</v>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C12" s="3">
-        <v>202</v>
-      </c>
-      <c r="D12" s="3">
+        <v>201</v>
+      </c>
+      <c r="D12" s="7">
         <v>1</v>
       </c>
       <c r="E12" s="5">
         <v>20198</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C13" s="3">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
@@ -622,6 +626,20 @@
         <v>20199</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="3">
+        <v>203</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>20200</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Excel/StartConfig/Release/StartProcessConfig@s.xlsx
+++ b/Excel/StartConfig/Release/StartProcessConfig@s.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFF5A1D-C664-4DF7-B7CA-7B09B627E1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811E1ADE-C3CB-48D8-B0D9-460BD9DFEE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartProcessConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>Id</t>
   </si>
@@ -50,10 +50,6 @@
   </si>
   <si>
     <t>Server</t>
-  </si>
-  <si>
-    <t>BanHao</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Center</t>
@@ -61,10 +57,6 @@
   </si>
   <si>
     <t>Robot</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alpha</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -460,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:F14"/>
+  <dimension ref="C3:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -525,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="5">
-        <v>20192</v>
+        <v>20302</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>9</v>
@@ -539,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="5">
-        <v>20193</v>
+        <v>20303</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>9</v>
@@ -553,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="5">
-        <v>20194</v>
+        <v>20304</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>9</v>
@@ -567,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="5">
-        <v>20195</v>
+        <v>20305</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>9</v>
@@ -581,66 +573,38 @@
         <v>1</v>
       </c>
       <c r="E10" s="5">
-        <v>20196</v>
+        <v>20306</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="3:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="7">
-        <v>200</v>
-      </c>
-      <c r="D11" s="7">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="3">
+        <v>202</v>
+      </c>
+      <c r="D11" s="3">
         <v>1</v>
       </c>
       <c r="E11" s="5">
-        <v>20197</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>13</v>
+        <v>20307</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C12" s="3">
-        <v>201</v>
-      </c>
-      <c r="D12" s="7">
+        <v>203</v>
+      </c>
+      <c r="D12" s="3">
         <v>1</v>
       </c>
       <c r="E12" s="5">
-        <v>20198</v>
+        <v>20308</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C13" s="3">
-        <v>202</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5">
-        <v>20199</v>
-      </c>
-      <c r="F13" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C14" s="3">
-        <v>203</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5">
-        <v>20200</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Release/StartProcessConfig@s.xlsx
+++ b/Excel/StartConfig/Release/StartProcessConfig@s.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811E1ADE-C3CB-48D8-B0D9-460BD9DFEE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F21F20-0B56-4FAA-9AFC-943DB584A361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1530" windowWidth="27030" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartProcessConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>Id</t>
   </si>
@@ -53,10 +53,6 @@
   </si>
   <si>
     <t>Center</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Robot</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -452,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:F12"/>
+  <dimension ref="C3:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -517,7 +513,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="5">
-        <v>20302</v>
+        <v>20202</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>9</v>
@@ -531,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="5">
-        <v>20303</v>
+        <v>20203</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>9</v>
@@ -545,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="5">
-        <v>20304</v>
+        <v>20204</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>9</v>
@@ -559,7 +555,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="5">
-        <v>20305</v>
+        <v>20205</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>9</v>
@@ -573,7 +569,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="5">
-        <v>20306</v>
+        <v>20206</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>9</v>
@@ -587,24 +583,10 @@
         <v>1</v>
       </c>
       <c r="E11" s="5">
-        <v>20307</v>
+        <v>20207</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C12" s="3">
-        <v>203</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5">
-        <v>20308</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
